--- a/output_1/all_schools.xlsx
+++ b/output_1/all_schools.xlsx
@@ -823,9 +823,7 @@
           <t>Total_Headcount_Full_Time</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>46862</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -833,9 +831,7 @@
           <t>Total_Headcount_Part_Time</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>5227</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -871,9 +867,7 @@
           <t>Total_Full_Time_Equivalent_Students</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>48604</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1288,7 +1282,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32986</v>
+        <v>31924</v>
       </c>
     </row>
     <row r="3">
@@ -1318,7 +1312,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24418</v>
+        <v>24580</v>
       </c>
     </row>
     <row r="6">
@@ -1810,9 +1804,7 @@
           <t>Room_and_Board_20_meals</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>14738</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1971,9 +1963,7 @@
           <t>Total_Full_Time_Equivalent_Students</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>14417</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2134,9 +2124,7 @@
           <t>Undergraduate_Headcount_Full_Time</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>2778</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2144,9 +2132,7 @@
           <t>Undergraduate_Headcount_Part_Time</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>339</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2164,9 +2150,7 @@
           <t>Graduate_Headcount_Full_Time</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>62</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2174,9 +2158,7 @@
           <t>Graduate_Headcount_Part_Time</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>544</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2210,9 +2192,7 @@
           <t>Total_Headcount_Full_Time</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>2840</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2220,9 +2200,7 @@
           <t>Total_Headcount_Part_Time</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>883</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2761,7 +2739,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4863</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="11">
@@ -3472,7 +3450,9 @@
           <t>Tuition</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>15148</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -3587,9 +3567,7 @@
           <t>Total_Headcount</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>4777</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3648,7 +3626,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10459</v>
+        <v>9459</v>
       </c>
     </row>
     <row r="18">
@@ -4147,9 +4125,7 @@
           <t>Total_Headcount</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>460331</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4737,7 +4713,9 @@
           <t>Undergraduate_Applications_Rcvd</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>4310</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4761,7 +4739,9 @@
           <t>Undergraduate_Acceptances</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>3826</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4785,7 +4765,9 @@
           <t>Undergraduate_Matriculants</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>1461</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -5157,7 +5139,9 @@
           <t>Undergraduate_Headcount</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>6975</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -5181,7 +5165,9 @@
           <t>Graduate_Headcount</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>13437</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5221,7 +5207,9 @@
           <t>Total_Headcount</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>20412</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5245,9 +5233,7 @@
           <t>Undergraduate_FTE</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>6975</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5255,9 +5241,7 @@
           <t>Graduate_FTE</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>13437</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -5273,9 +5257,7 @@
           <t>Total_Full_Time_Equivalent_Students</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>20412</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -5496,9 +5478,7 @@
           <t>Total_Headcount</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>7820</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5506,9 +5486,7 @@
           <t>Total_Headcount_Full_Time</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>5433</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5516,9 +5494,7 @@
           <t>Total_Headcount_Part_Time</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2387</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5738,7 +5714,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5">
@@ -5747,7 +5723,9 @@
           <t>Graduate_Headcount</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5755,7 +5733,9 @@
           <t>Graduate_Headcount_Full_Time</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5763,7 +5743,9 @@
           <t>Graduate_Headcount_Part_Time</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5771,7 +5753,9 @@
           <t>Professional_Headcount</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5779,7 +5763,9 @@
           <t>Non_Degree_Headcount</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5808,7 +5794,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>95</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13">
@@ -5817,7 +5803,9 @@
           <t>Undergraduate_FTE</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>1830</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5825,7 +5813,9 @@
           <t>Graduate_FTE</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -5833,7 +5823,9 @@
           <t>Professional_FTE</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -5841,7 +5833,9 @@
           <t>Total_Full_Time_Equivalent_Students</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>1830</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -5927,7 +5921,9 @@
           <t>Retention_Rate</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">

--- a/output_1/all_schools.xlsx
+++ b/output_1/all_schools.xlsx
@@ -19,14 +19,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Michigan_state_university" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Molloy_college" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="New_York_University" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ohio_state" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ST_Louis_univ" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stevenson" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Texas_A&amp;M" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="The_catholic_university_of_amer" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="University_of_colorado" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="University_of_minesota" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="stevens_institue_of_technology" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1114,7 +1106,9 @@
           <t>Undergraduate_FTE</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>2907</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1122,7 +1116,9 @@
           <t>Graduate_FTE</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>839</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1138,7 +1134,9 @@
           <t>Total_Full_Time_Equivalent_Students</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>3746</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1234,7 +1232,9 @@
           <t>Tuition</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>37840</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24580</v>
+        <v>18592</v>
       </c>
     </row>
     <row r="6">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3376</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="9">
@@ -1523,1935 +1523,6 @@
       </c>
       <c r="B28" t="n">
         <v>62796</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Room_and_Board_20_meals</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>2024-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Headcount</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>52269</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Headcount_Full_Time</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Headcount_Part_Time</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Headcount</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>11408</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Headcount_Full_Time</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Headcount_Part_Time</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Professional_Headcount</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3224</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Non_Degree_Headcount</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Total_Headcount</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>66901</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Total_Headcount_Full_Time</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total_Headcount_Part_Time</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_FTE</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_FTE</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Professional_FTE</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Total_Full_Time_Equivalent_Students</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>60820</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Applications_Rcvd</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>72791</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Applications_Rcvd</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Transfer_Applications_Rcvd</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Acceptances</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>44078</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Acceptances</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Transfer_Acceptances</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Matriculants</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>9530</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Matriculants</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Transfer_Matriculants</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Retention_Rate</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Full_Time_Employee_Equivalents</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Tuition</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>12728</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Room_and_Board_20_meals</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>2024-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Headcount</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>8669</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Headcount_Full_Time</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Headcount_Part_Time</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Headcount</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6665</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Headcount_Full_Time</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Headcount_Part_Time</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Professional_Headcount</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Non_Degree_Headcount</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Total_Headcount</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>15334</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Total_Headcount_Full_Time</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>14417</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total_Headcount_Part_Time</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_FTE</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_FTE</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Professional_FTE</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Total_Full_Time_Equivalent_Students</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Applications_Rcvd</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>15533</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Applications_Rcvd</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Transfer_Applications_Rcvd</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Acceptances</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>11656</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Acceptances</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Transfer_Acceptances</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Matriculants</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Matriculants</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Transfer_Matriculants</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Retention_Rate</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Full_Time_Employee_Equivalents</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Tuition</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>54760</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Room_and_Board_20_meals</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>2024-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Headcount</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2778</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Headcount_Full_Time</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Headcount_Part_Time</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Headcount</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Headcount_Full_Time</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Headcount_Part_Time</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Professional_Headcount</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Non_Degree_Headcount</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Total_Headcount</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3723</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Total_Headcount_Full_Time</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total_Headcount_Part_Time</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_FTE</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_FTE</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Professional_FTE</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Total_Full_Time_Equivalent_Students</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Applications_Rcvd</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5709</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Applications_Rcvd</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Transfer_Applications_Rcvd</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Acceptances</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4505</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Acceptances</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Transfer_Acceptances</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Matriculants</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Matriculants</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Transfer_Matriculants</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Retention_Rate</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Full_Time_Employee_Equivalents</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Tuition</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>37734</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Room_and_Board_20_meals</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>2024-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Headcount</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>165559</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Headcount_Full_Time</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Headcount_Part_Time</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Headcount</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>31870</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Headcount_Full_Time</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Headcount_Part_Time</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Professional_Headcount</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Non_Degree_Headcount</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Total_Headcount</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Total_Headcount_Full_Time</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total_Headcount_Part_Time</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_FTE</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_FTE</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Professional_FTE</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Total_Full_Time_Equivalent_Students</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Applications_Rcvd</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>140168</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Applications_Rcvd</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Transfer_Applications_Rcvd</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>29827</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Acceptances</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>101048</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Acceptances</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Transfer_Acceptances</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>17760</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Matriculants</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>26695</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Matriculants</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Transfer_Matriculants</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>12065</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Retention_Rate</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Full_Time_Employee_Equivalents</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Tuition</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Room_and_Board_20_meals</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>2024-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Headcount</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3177</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Headcount_Full_Time</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2969</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Headcount_Part_Time</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Headcount</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Headcount_Full_Time</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Headcount_Part_Time</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Professional_Headcount</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Non_Degree_Headcount</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Total_Headcount</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5242</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Total_Headcount_Full_Time</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4011</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total_Headcount_Part_Time</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_FTE</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_FTE</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Professional_FTE</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Total_Full_Time_Equivalent_Students</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5780</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Applications_Rcvd</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>6716</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Applications_Rcvd</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5717</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Transfer_Applications_Rcvd</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Acceptances</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5560</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Acceptances</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3067</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Transfer_Acceptances</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Matriculants</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Matriculants</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Transfer_Matriculants</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Retention_Rate</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Full_Time_Employee_Equivalents</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Tuition</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>56930</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Room_and_Board_20_meals</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>18200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>2024-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Headcount</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>50981</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Headcount_Full_Time</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Headcount_Part_Time</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Headcount</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>16727</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Headcount_Full_Time</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Headcount_Part_Time</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Professional_Headcount</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Non_Degree_Headcount</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Total_Headcount</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>67708</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Total_Headcount_Full_Time</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total_Headcount_Part_Time</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_FTE</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>45046</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_FTE</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8003</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Professional_FTE</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Total_Full_Time_Equivalent_Students</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>53049</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Applications_Rcvd</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>111381</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Applications_Rcvd</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Transfer_Applications_Rcvd</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Acceptances</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>84127</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Acceptances</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Transfer_Acceptances</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Matriculants</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>14450</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Matriculants</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Transfer_Matriculants</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Retention_Rate</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Full_Time_Employee_Equivalents</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Tuition</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Room_and_Board_20_meals</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>2024-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Headcount</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>42424</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Headcount_Full_Time</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Headcount_Part_Time</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Headcount</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>11841</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Headcount_Full_Time</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Headcount_Part_Time</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Professional_Headcount</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4109</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Non_Degree_Headcount</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>11716</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Total_Headcount</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>70090</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Total_Headcount_Full_Time</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total_Headcount_Part_Time</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_FTE</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_FTE</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Professional_FTE</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Total_Full_Time_Equivalent_Students</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Applications_Rcvd</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>58444</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Applications_Rcvd</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Transfer_Applications_Rcvd</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Acceptances</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>45601</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Acceptances</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Transfer_Acceptances</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Matriculants</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>9837</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Matriculants</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Transfer_Matriculants</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Retention_Rate</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Full_Time_Employee_Equivalents</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Tuition</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>15148</v>
       </c>
     </row>
     <row r="29">
@@ -3744,289 +1815,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>2024-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Headcount</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4236</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Headcount_Full_Time</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Headcount_Part_Time</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Headcount</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4233</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Headcount_Full_Time</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Headcount_Part_Time</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Professional_Headcount</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Non_Degree_Headcount</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Total_Headcount</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8469</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Total_Headcount_Full_Time</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total_Headcount_Part_Time</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_FTE</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4191</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_FTE</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3259</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Professional_FTE</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Total_Full_Time_Equivalent_Students</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>7450</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Applications_Rcvd</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>10673</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Applications_Rcvd</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10862</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Transfer_Applications_Rcvd</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Acceptances</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5078</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Acceptances</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>7109</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Transfer_Acceptances</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Undergraduate_Matriculants</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Graduate_Matriculants</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Transfer_Matriculants</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Retention_Rate</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Full_Time_Employee_Equivalents</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Tuition</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>61028</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Room_and_Board_20_meals</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>19124</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -5139,9 +2927,7 @@
           <t>Undergraduate_Headcount</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>6975</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -5165,9 +2951,7 @@
           <t>Graduate_Headcount</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>13437</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5207,9 +2991,7 @@
           <t>Total_Headcount</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>20412</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5233,7 +3015,9 @@
           <t>Undergraduate_FTE</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>6975</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5241,7 +3025,9 @@
           <t>Graduate_FTE</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>13437</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -5257,7 +3043,9 @@
           <t>Total_Full_Time_Equivalent_Students</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>20412</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -5446,7 +3234,9 @@
           <t>Graduate_Headcount_Full_Time</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>5433</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5454,7 +3244,9 @@
           <t>Graduate_Headcount_Part_Time</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>2387</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5784,7 +3576,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1735</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="12">
@@ -5794,7 +3586,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>188</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13">
@@ -5814,7 +3606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
@@ -5922,7 +3714,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>77</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="27">
